--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1620" windowWidth="28800" windowHeight="14940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="276">
   <si>
     <t>样本类别</t>
     <rPh sb="0" eb="1">
@@ -162,13 +162,6 @@
     <t>法人机构类型</t>
     <rPh sb="0" eb="1">
       <t>fa ren ji gou lei xing</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法人机构简介</t>
-    <rPh sb="0" eb="1">
-      <t>fa ren ji gou jian jie</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -634,9 +627,6 @@
     <t>r3QxPyWnZ8sBVqOCwG1N</t>
   </si>
   <si>
-    <t>1987-09-16</t>
-  </si>
-  <si>
     <t>QeGH6Riynx9hw4E7Cqk1</t>
   </si>
   <si>
@@ -1106,13 +1096,20 @@
   </si>
   <si>
     <t>aUHqm19RAfMYzGSQBVWJ</t>
+  </si>
+  <si>
+    <t>保存机构简介</t>
+    <rPh sb="0" eb="1">
+      <t>bao cun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1136,6 +1133,24 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1154,15 +1169,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1439,21 +1462,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1474,7 +1497,7 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
@@ -1489,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="O1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P1" t="s">
         <v>11</v>
@@ -1519,135 +1542,135 @@
         <v>19</v>
       </c>
       <c r="Y1" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH1" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU1" t="s">
         <v>62</v>
       </c>
-      <c r="AH1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>44</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>45</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>46</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>47</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>48</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>49</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>50</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>51</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>52</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>53</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>54</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="F2" s="1">
         <v>230</v>
@@ -1656,186 +1679,186 @@
         <v>76</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="AE2" s="1">
         <v>97</v>
       </c>
       <c r="AF2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="AH2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI2" s="1">
         <v>25</v>
       </c>
       <c r="AJ2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="BI2" s="1">
         <v>42</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="F3" s="1">
         <v>178</v>
@@ -1844,186 +1867,186 @@
         <v>225</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="AE3" s="1">
         <v>244</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI3" s="1">
         <v>141</v>
       </c>
       <c r="AJ3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="BI3" s="1">
         <v>198</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="F4" s="1">
         <v>247</v>
@@ -2032,186 +2055,186 @@
         <v>95</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="AE4" s="1">
         <v>249</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI4" s="1">
         <v>89</v>
       </c>
       <c r="AJ4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL4" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AM4" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AN4" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AM4" s="1" t="s">
+      <c r="AO4" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AN4" s="1" t="s">
+      <c r="AP4" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AQ4" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AP4" s="1" t="s">
+      <c r="AR4" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AQ4" s="1" t="s">
+      <c r="AS4" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AR4" s="1" t="s">
+      <c r="AT4" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AS4" s="1" t="s">
+      <c r="AU4" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AT4" s="1" t="s">
+      <c r="AV4" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AU4" s="1" t="s">
+      <c r="AW4" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AV4" s="1" t="s">
+      <c r="AX4" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AW4" s="1" t="s">
+      <c r="AY4" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AX4" s="1" t="s">
+      <c r="AZ4" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AY4" s="1" t="s">
+      <c r="BA4" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AZ4" s="1" t="s">
+      <c r="BB4" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="BA4" s="1" t="s">
+      <c r="BC4" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="BB4" s="1" t="s">
+      <c r="BD4" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="BC4" s="1" t="s">
+      <c r="BE4" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="BD4" s="1" t="s">
+      <c r="BF4" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="BE4" s="1" t="s">
+      <c r="BG4" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="BF4" s="1" t="s">
+      <c r="BH4" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="BI4" s="1">
         <v>235</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="F5" s="1">
         <v>125</v>
@@ -2220,173 +2243,174 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="AE5" s="1">
         <v>136</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI5" s="1">
         <v>63</v>
       </c>
       <c r="AJ5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL5" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AK5" s="1" t="s">
+      <c r="AM5" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AL5" s="1" t="s">
+      <c r="AN5" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AM5" s="1" t="s">
+      <c r="AO5" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AN5" s="1" t="s">
+      <c r="AP5" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AO5" s="1" t="s">
+      <c r="AQ5" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AP5" s="1" t="s">
+      <c r="AR5" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AQ5" s="1" t="s">
+      <c r="AS5" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AR5" s="1" t="s">
+      <c r="AT5" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AS5" s="1" t="s">
+      <c r="AU5" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="AT5" s="1" t="s">
+      <c r="AV5" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="AU5" s="1" t="s">
+      <c r="AW5" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="AV5" s="1" t="s">
+      <c r="AX5" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="AW5" s="1" t="s">
+      <c r="AY5" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AX5" s="1" t="s">
+      <c r="AZ5" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="AY5" s="1" t="s">
+      <c r="BA5" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="AZ5" s="1" t="s">
+      <c r="BB5" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="BA5" s="1" t="s">
+      <c r="BC5" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="BB5" s="1" t="s">
+      <c r="BD5" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="BC5" s="1" t="s">
+      <c r="BE5" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="BD5" s="1" t="s">
+      <c r="BF5" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="BE5" s="1" t="s">
+      <c r="BG5" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="BF5" s="1" t="s">
+      <c r="BH5" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="BI5" s="1">
         <v>71</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1620" windowWidth="28800" windowHeight="14940" tabRatio="500"/>
+    <workbookView xWindow="1820" yWindow="4480" windowWidth="28800" windowHeight="9580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="169">
   <si>
     <t>样本类别</t>
     <rPh sb="0" eb="1">
@@ -267,13 +267,6 @@
     <t>教育程度</t>
     <rPh sb="0" eb="1">
       <t>jiao yu cheng du</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>婚姻状况</t>
-    <rPh sb="0" eb="1">
-      <t>hun yin zhuang kuang</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -465,644 +458,756 @@
     <t>室温</t>
   </si>
   <si>
-    <t>EAzRZDOX3rvmUB7Qhjen</t>
-  </si>
-  <si>
     <t>1979-01-16</t>
   </si>
   <si>
-    <t>IOMuVtz06HUwpRK5Pyqe</t>
-  </si>
-  <si>
-    <t>l9SaRhn6beXYTAsUoBuJ</t>
-  </si>
-  <si>
-    <t>T8z4miMbJfsWP6CytV2d</t>
-  </si>
-  <si>
-    <t>TUZLszrOYA2VPfHS6h5v</t>
-  </si>
-  <si>
-    <t>r2mKxoabkDAvNCU56RM8</t>
-  </si>
-  <si>
-    <t>ue2D6iTQd0LWPbl71t4w</t>
-  </si>
-  <si>
-    <t>SXiHVqFMxU9Aw8JulpRe</t>
-  </si>
-  <si>
-    <t>BEopTqJYDbWIxAt4Q51f</t>
-  </si>
-  <si>
-    <t>ZOWxFgn2iVCdEQ1ezftL</t>
-  </si>
-  <si>
     <t>1978-03-28</t>
   </si>
   <si>
-    <t>ZBkoA5MP94wsVLGagvSl</t>
-  </si>
-  <si>
-    <t>wKPISVgLYQpvMtlb01DH</t>
-  </si>
-  <si>
-    <t>BxFuS2aMGifoscHYTU7O</t>
-  </si>
-  <si>
-    <t>0AZ3acvU6HlYzTX9dDhw</t>
-  </si>
-  <si>
-    <t>UVkn3YLrwMta8Q7EN2Ke</t>
-  </si>
-  <si>
-    <t>CQs1LMGenNDkWObKJ8Sm</t>
-  </si>
-  <si>
-    <t>yYEcqnxQkh674CAv5uiS</t>
-  </si>
-  <si>
-    <t>mA2EfSxThprwkyj4Mq39</t>
-  </si>
-  <si>
-    <t>gDrTfAvdVckGapb1NXKY</t>
-  </si>
-  <si>
-    <t>myFRwkVoaXTv36eOSs85</t>
-  </si>
-  <si>
-    <t>2PnENqHyt8oTm5wfMYlu</t>
-  </si>
-  <si>
-    <t>Gzh71fV5DlUxdM0PtB3E</t>
-  </si>
-  <si>
-    <t>ifRO4UEnYdrF2NGjDl0H</t>
-  </si>
-  <si>
-    <t>JcWSBjN0iVEOHuLPzTax</t>
-  </si>
-  <si>
-    <t>R64MNOCkLQy1G9nx2lzI</t>
-  </si>
-  <si>
-    <t>5HbPK2iGTaruYAfnBgWp</t>
-  </si>
-  <si>
-    <t>XM863apw7t2DhPINlSgF</t>
-  </si>
-  <si>
-    <t>OF9R6jrsvNiWG58pSAa7</t>
-  </si>
-  <si>
-    <t>ylsqr7xhgNBdmP9Ae5CY</t>
-  </si>
-  <si>
-    <t>Jw4FQKcvDVmnAktYrObU</t>
-  </si>
-  <si>
-    <t>top297fE3K0rLBvI4lTz</t>
-  </si>
-  <si>
-    <t>uZVthFgHf9pByWxnYX76</t>
-  </si>
-  <si>
-    <t>Zx8VtlpoF9YdNQmJ5cWO</t>
-  </si>
-  <si>
-    <t>UJHoEAVdNDBmpjI90agW</t>
-  </si>
-  <si>
-    <t>ukjOB5i1wcdZKmLblfFH</t>
-  </si>
-  <si>
-    <t>aRUn2meG9QArS7kLfM8w</t>
-  </si>
-  <si>
-    <t>1Pae62IgS3CZlYzfv5hs</t>
-  </si>
-  <si>
-    <t>EXj6Y2OPZgeHumxIwBDR</t>
-  </si>
-  <si>
-    <t>zpC5hEV2OXc17dfMUktY</t>
-  </si>
-  <si>
-    <t>YWatGA4cshfHepjL3r6n</t>
-  </si>
-  <si>
-    <t>SLzp4M8ZvhwiXq2YArCD</t>
-  </si>
-  <si>
-    <t>xP9N28vfpXkUaM0jKCGE</t>
-  </si>
-  <si>
-    <t>I5DWOu1ixaSX3tMBoH6y</t>
-  </si>
-  <si>
-    <t>cA9QbhIjmu0DC5K2J81R</t>
-  </si>
-  <si>
-    <t>a6Pi4YpLctlHZdIfuQS7</t>
-  </si>
-  <si>
-    <t>HGTQCZBmlUpfj0RA85zs</t>
-  </si>
-  <si>
-    <t>0Vn9PxaJKeIqGbp34XUQ</t>
-  </si>
-  <si>
-    <t>GDzWoTFlJ41mQpCHIhfv</t>
-  </si>
-  <si>
-    <t>YgS7zJekh4tQciBm6O51</t>
-  </si>
-  <si>
-    <t>7oVeKna4GmX1pSCRA5ig</t>
-  </si>
-  <si>
-    <t>4EOUBb9fpjZaJxKYIyPm</t>
-  </si>
-  <si>
-    <t>r3QxPyWnZ8sBVqOCwG1N</t>
-  </si>
-  <si>
-    <t>QeGH6Riynx9hw4E7Cqk1</t>
-  </si>
-  <si>
-    <t>4OSxKbziyr1If0ThnFDM</t>
-  </si>
-  <si>
-    <t>9dAE0raciqoN8kOX3S5f</t>
-  </si>
-  <si>
-    <t>HcWDFCVANt9uSxfw5jLY</t>
-  </si>
-  <si>
-    <t>dytXxKNzhZ9e4D80vlQr</t>
-  </si>
-  <si>
-    <t>GDuQtbCABNv76pIMmiOy</t>
-  </si>
-  <si>
-    <t>WCJnXA18fY5LhP64BSkM</t>
-  </si>
-  <si>
-    <t>SBZlVyHYbqL50C8K2NA1</t>
-  </si>
-  <si>
-    <t>t7bL2ksvoJ9BK1ChUxmc</t>
-  </si>
-  <si>
-    <t>1990-06-22</t>
-  </si>
-  <si>
-    <t>jB0KnFRL1rmMzsIk2oVx</t>
-  </si>
-  <si>
-    <t>LpzQ71grFVWYy8IcZXxj</t>
-  </si>
-  <si>
-    <t>xd3VKOokeG8mHasQ1iZu</t>
-  </si>
-  <si>
-    <t>aHu7LmvZ4GWAkfrF0qUi</t>
-  </si>
-  <si>
-    <t>RSoQCZx9I2U6LdeWzBK0</t>
-  </si>
-  <si>
-    <t>0a18OYEuxPzlbQ4379LX</t>
-  </si>
-  <si>
-    <t>0kBxLcEZnKNvwJto8Dz2</t>
-  </si>
-  <si>
-    <t>VS7kUfB6itmEx1MoH40A</t>
-  </si>
-  <si>
-    <t>ZXWavMb0FuctUpD8dlSj</t>
-  </si>
-  <si>
-    <t>ako0x8c9b1iyt4BXsRjq</t>
-  </si>
-  <si>
-    <t>rgE25o3FlZ8SIDuxwHTk</t>
-  </si>
-  <si>
-    <t>G73lnZUSHOR5V0mhB9J2</t>
-  </si>
-  <si>
-    <t>ujwCz7VISfGdxRk6lNsa</t>
-  </si>
-  <si>
-    <t>CGWkhLEP2Y0xm7wiFAZX</t>
-  </si>
-  <si>
-    <t>aDEgwzGFCeZtIPXu7W0S</t>
-  </si>
-  <si>
-    <t>qreP5dH9FVUTA8tXhys6</t>
-  </si>
-  <si>
-    <t>xQSpsUT8DHvZuiFmjMEe</t>
-  </si>
-  <si>
-    <t>Ug4PYTwdV0km2WZFCc65</t>
-  </si>
-  <si>
-    <t>qGZu71ASdmNpf32KPBV9</t>
-  </si>
-  <si>
-    <t>AeaOogwSThLd5EWf10Dt</t>
-  </si>
-  <si>
-    <t>WeUoutr0LIxDdEnBaVMK</t>
-  </si>
-  <si>
-    <t>JADmG0XvWgRxiYhBFdqV</t>
-  </si>
-  <si>
-    <t>TK3aMl9jdXovQ2rDiAtf</t>
-  </si>
-  <si>
-    <t>48XWMJnEQPIVjt3aDCxu</t>
-  </si>
-  <si>
-    <t>pX1voPIlR06ZBMskJxzQ</t>
-  </si>
-  <si>
-    <t>V5MQmhFl4Szc21AToLjO</t>
-  </si>
-  <si>
-    <t>hoTJy6U7jQXzplegsdBZ</t>
-  </si>
-  <si>
-    <t>oVkdKLCE4Bevl2U8fwXN</t>
-  </si>
-  <si>
-    <t>lfmq1j4VudxUo5cNpRez</t>
-  </si>
-  <si>
-    <t>AWcDsmF49CeIT6pkGjR1</t>
-  </si>
-  <si>
-    <t>q7GW8CyiVanNwdIp9MbD</t>
-  </si>
-  <si>
-    <t>QCEh4Hk3D2B5URw9LJ8W</t>
-  </si>
-  <si>
-    <t>pJNQmGTKixvq7ntjecz0</t>
-  </si>
-  <si>
-    <t>vl8UfHOD5yQdatnjNC3G</t>
-  </si>
-  <si>
-    <t>sJTynOt0c5lNbpiY61o3</t>
-  </si>
-  <si>
-    <t>n6Ql1aXrRZmBFJbUWxq3</t>
-  </si>
-  <si>
-    <t>t49aiUTcsAJoWOu3Iv5g</t>
-  </si>
-  <si>
-    <t>GutjZnL6FWpiaX720gDP</t>
-  </si>
-  <si>
-    <t>rCEAB3LNqyG8cFpTIUuV</t>
-  </si>
-  <si>
-    <t>uYmC2fl08zeA4GxOyUaP</t>
-  </si>
-  <si>
-    <t>KJax73WVSI52EDqoyCOM</t>
-  </si>
-  <si>
-    <t>A3JVQuXkjTsclROqmPvf</t>
-  </si>
-  <si>
-    <t>1980-10-14</t>
-  </si>
-  <si>
-    <t>LCtpej95DMYgh3aIbAES</t>
-  </si>
-  <si>
-    <t>5BPrGonSkgayluTX0pi6</t>
-  </si>
-  <si>
-    <t>rGNHWR3wyLjF61lDq7gB</t>
-  </si>
-  <si>
-    <t>zfdTROYaUFMl2Sn7k8Ny</t>
-  </si>
-  <si>
-    <t>aIHKqrh96lms3CxeOg2D</t>
-  </si>
-  <si>
-    <t>eFMUxlpzqwadkOhAb7jT</t>
-  </si>
-  <si>
-    <t>2sz9jEk8iFpe7tWKBa5o</t>
-  </si>
-  <si>
-    <t>yvH3sP6R1bEKjUxC0OwY</t>
-  </si>
-  <si>
-    <t>NhxdCr2svoElXJcF0qeP</t>
-  </si>
-  <si>
-    <t>1977-05-04</t>
-  </si>
-  <si>
-    <t>fu7QBX0hUi8YFpcVt4Jq</t>
-  </si>
-  <si>
-    <t>08F3ENfbZRtyGoWH9nuJ</t>
-  </si>
-  <si>
-    <t>1LpYnv64zrxI0HdJ3WaE</t>
-  </si>
-  <si>
-    <t>ABhD0JuCyZFdcsfoVU3q</t>
-  </si>
-  <si>
-    <t>yDMlLVrOKGcNCRa1v93m</t>
-  </si>
-  <si>
-    <t>4kQdpgLWyq2wKjxuTtPC</t>
-  </si>
-  <si>
-    <t>DHGbk1UVC2Zrdc4LEoeI</t>
-  </si>
-  <si>
-    <t>nliDxQA427SRt8bTHpsk</t>
-  </si>
-  <si>
-    <t>SnmWMfO8rFL09c2I7pbG</t>
-  </si>
-  <si>
-    <t>iC5VUjqHyQISJbFXlnM8</t>
-  </si>
-  <si>
-    <t>JFgKG9vXPhbyU13QoA86</t>
-  </si>
-  <si>
-    <t>R8BWlXETLnp1uDivCsIP</t>
-  </si>
-  <si>
-    <t>Lh2ZbBdMAqFmvNTRODGg</t>
-  </si>
-  <si>
-    <t>0FaXSKulpnGgz6qPRb2V</t>
-  </si>
-  <si>
-    <t>Bi0sSxbo5MyjCrg2wAVQ</t>
-  </si>
-  <si>
-    <t>78y2kYpNrxaV1HjoMKGq</t>
-  </si>
-  <si>
-    <t>JAITHLD84xC0ofFMsRuZ</t>
-  </si>
-  <si>
-    <t>sbCjMfcYqHJoRWSL643U</t>
-  </si>
-  <si>
-    <t>8os1d03vRxDXmzrOTFtw</t>
-  </si>
-  <si>
-    <t>bQ67ACSwjpUgmT0IBzOl</t>
-  </si>
-  <si>
-    <t>qm5asWUv2EF3IDkY470u</t>
-  </si>
-  <si>
-    <t>fzvOr980yEb3lTd1MUSa</t>
-  </si>
-  <si>
-    <t>6T0RCzc3JBd2n1jAivYp</t>
-  </si>
-  <si>
-    <t>VL03kIisomwbDv2O45Un</t>
-  </si>
-  <si>
-    <t>O70ITfrAtzZj8nowExNu</t>
-  </si>
-  <si>
-    <t>f7ZE4tOr9DaCNuxc51mJ</t>
-  </si>
-  <si>
-    <t>GOBNXoMu10RlnycdIUFZ</t>
-  </si>
-  <si>
-    <t>XofNyjSm6EWkLwRJiaO3</t>
-  </si>
-  <si>
-    <t>lqwi6HkcpUMzQIPKsL70</t>
-  </si>
-  <si>
-    <t>6gTlDavCZB5ds23Qhn8I</t>
-  </si>
-  <si>
-    <t>RcGFKsM6U2mr39kihT8v</t>
-  </si>
-  <si>
-    <t>i23H6q7wOngM0BdPNf5p</t>
-  </si>
-  <si>
-    <t>G9d6chiXzub1vZ4LrfBI</t>
-  </si>
-  <si>
-    <t>oicCAU70pWbFTaZm9yxN</t>
-  </si>
-  <si>
-    <t>MharxIPn27eUyFfNwopS</t>
-  </si>
-  <si>
-    <t>th4CNIK2jQeuPZXnq7g5</t>
-  </si>
-  <si>
-    <t>zJWxmSZ26ayB8okwRuCE</t>
-  </si>
-  <si>
-    <t>7v3ZgbDKXyU2dcx8951Y</t>
-  </si>
-  <si>
-    <t>JMgSchWU3eDGsOQqb46t</t>
-  </si>
-  <si>
-    <t>pVZ0QUI7uqsRGSX5mTlA</t>
-  </si>
-  <si>
-    <t>Ur4AlzkDbxf5GmEVCpWL</t>
-  </si>
-  <si>
-    <t>mvjwgct0RysYL8baQdox</t>
-  </si>
-  <si>
-    <t>1990-05-09</t>
-  </si>
-  <si>
-    <t>5uOPqzaWJe2diIVgHZkh</t>
-  </si>
-  <si>
-    <t>0kMyETfOv4GQJXa5ghHx</t>
-  </si>
-  <si>
-    <t>JiHXtvrNa8f4Fxg0R1L5</t>
-  </si>
-  <si>
-    <t>DPkHcE1V3GqL5FQOdJ6p</t>
-  </si>
-  <si>
-    <t>Do8aP54hKNFzZ3YAlVyd</t>
-  </si>
-  <si>
-    <t>H9NlhaC1Fr2WUOVQ3Ru6</t>
-  </si>
-  <si>
-    <t>kigR2PYdO6wF0BvsSabz</t>
-  </si>
-  <si>
-    <t>IqO7omluAVtYrsd9iEb4</t>
-  </si>
-  <si>
-    <t>ltCOgxz4WsEjhLnRuQHK</t>
-  </si>
-  <si>
-    <t>1983-06-02</t>
-  </si>
-  <si>
-    <t>HhLjT8qYxV9nJlASurOf</t>
-  </si>
-  <si>
-    <t>HYU3hq4K2VulOFTgAcvM</t>
-  </si>
-  <si>
-    <t>15HzXEZjoBGxhiRTPmWU</t>
-  </si>
-  <si>
-    <t>hciywLv5zmJo7HaXDCtI</t>
-  </si>
-  <si>
-    <t>I5XgapQDxq08Vc3iOHlF</t>
-  </si>
-  <si>
-    <t>px5GKnV4T9mBfOrYRJMQ</t>
-  </si>
-  <si>
-    <t>3zwvJKs0lAjk1EUoe8fu</t>
-  </si>
-  <si>
-    <t>PEKq5FSvy3IptaTcHhQ1</t>
-  </si>
-  <si>
-    <t>juJEPcqnCO18rfA9azIi</t>
-  </si>
-  <si>
-    <t>tVZrDm90AREjz6NWKCq2</t>
-  </si>
-  <si>
-    <t>sn4DktAcRWHlUFioxYZf</t>
-  </si>
-  <si>
-    <t>OB4jQ7m20JtCr5H1gDPL</t>
-  </si>
-  <si>
-    <t>WZpFAjTXGSv01xydVsb6</t>
-  </si>
-  <si>
-    <t>K1Y98lof3OHengXWbiFc</t>
-  </si>
-  <si>
-    <t>oDhdz6pI7Ft04QATUSGg</t>
-  </si>
-  <si>
-    <t>XI2pC7MNSPVYGzKRehD6</t>
-  </si>
-  <si>
-    <t>kwctE9HmGdqoxTpXL8lM</t>
-  </si>
-  <si>
-    <t>efXCSAhdxpiFnTy3kZOa</t>
-  </si>
-  <si>
-    <t>hbWOmpc1ZNYe2xuAE6dw</t>
-  </si>
-  <si>
-    <t>NeUHG8c5OZ7vhKMR2Sim</t>
-  </si>
-  <si>
-    <t>jlbqupHcU952yRFtvn0z</t>
-  </si>
-  <si>
-    <t>vmeA20IFQqHjEk6YOozr</t>
-  </si>
-  <si>
-    <t>XmiQ6G4yV23RKuwUYDLJ</t>
-  </si>
-  <si>
-    <t>KtSLiYVr6mXRuHbk3hyo</t>
-  </si>
-  <si>
-    <t>qkmES30Pa5nzOZlX628H</t>
-  </si>
-  <si>
-    <t>6tPQvS41ZDpAjTX0oefN</t>
-  </si>
-  <si>
-    <t>TqOcElUQCD9Rg8GtaP07</t>
-  </si>
-  <si>
-    <t>dgiN3U4uocmhLWkfvpRz</t>
-  </si>
-  <si>
-    <t>OsqLFrximMVzpl3AcwfX</t>
-  </si>
-  <si>
-    <t>RnXe8YhxPVCFavuTNKyW</t>
-  </si>
-  <si>
-    <t>JcWkZyXvSnFafC6qY3Rj</t>
-  </si>
-  <si>
-    <t>4EV5LyZK9nxN2cmHWJCM</t>
-  </si>
-  <si>
-    <t>ybX53PFziRuQ6pS9nf70</t>
-  </si>
-  <si>
-    <t>DaRQOM8dNTgxHc6U7e3h</t>
-  </si>
-  <si>
-    <t>oh6THDi4mWXycqFasbJM</t>
-  </si>
-  <si>
-    <t>ChSOA24KHn5xgzmG9XyM</t>
-  </si>
-  <si>
-    <t>G1tFdhaTcu0elfN2nWAK</t>
-  </si>
-  <si>
-    <t>xo9RmBVAONnF3YatlPCD</t>
-  </si>
-  <si>
-    <t>jegU0dJfSGYXwqTuEO3D</t>
-  </si>
-  <si>
-    <t>SOsV57fcFvuroqwBxTyI</t>
-  </si>
-  <si>
-    <t>aUHqm19RAfMYzGSQBVWJ</t>
-  </si>
-  <si>
     <t>保存机构简介</t>
     <rPh sb="0" eb="1">
       <t>bao cun</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚姻状况</t>
+    <rPh sb="0" eb="1">
+      <t>hun yin zhuang kuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本编码1</t>
+    <rPh sb="0" eb="1">
+      <t>yang ben</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母本编码1</t>
+    <rPh sb="0" eb="1">
+      <t>mu ben bian ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量单位1</t>
+    <rPh sb="0" eb="1">
+      <t>liang dan wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本别称1</t>
+    <rPh sb="0" eb="1">
+      <t>yang ben bie cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本描述1</t>
+    <rPh sb="0" eb="1">
+      <t>yang ben miao shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词1</t>
+    <rPh sb="0" eb="1">
+      <t>guan jian ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本用途1</t>
+    <rPh sb="0" eb="1">
+      <t>yang ben yong tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集部位1</t>
+    <rPh sb="0" eb="1">
+      <t>cai ji bu wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析前变量1</t>
+    <rPh sb="0" eb="1">
+      <t>fen xi qian bian liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集动因1</t>
+    <rPh sb="0" eb="1">
+      <t>cai ji dong yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集计划1</t>
+    <rPh sb="0" eb="1">
+      <t>cai ji ji hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集机构1</t>
+    <rPh sb="0" eb="1">
+      <t>cai ji ji gou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他采集者1</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta cai ji zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存机构名称1</t>
+    <rPh sb="0" eb="1">
+      <t>bao cun ji gou ming cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人机构名称1</t>
+    <rPh sb="0" eb="1">
+      <t>fa ren ji gou ming cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人机构代码1</t>
+    <rPh sb="0" eb="1">
+      <t>fa ren ji gou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dai ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人机构类型1</t>
+    <rPh sb="0" eb="1">
+      <t>fa ren ji gou lei xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存机构简介1</t>
+    <rPh sb="0" eb="1">
+      <t>bao cun ji gou jian jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用许可1</t>
+    <rPh sb="0" eb="1">
+      <t>shi yong xu ke</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享方式1</t>
+    <rPh sb="0" eb="1">
+      <t>gong xiang fang shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信地址1</t>
+    <rPh sb="0" eb="1">
+      <t>tong xin di zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政编码1</t>
+    <rPh sb="0" eb="1">
+      <t>you zheng bi na ma</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员1</t>
+    <rPh sb="0" eb="1">
+      <t>guan li yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子信箱1</t>
+    <rPh sb="0" eb="1">
+      <t>dian zi xin xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐献者匿名编号1</t>
+    <rPh sb="0" eb="1">
+      <t>juan xian zhe ni ming bian hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族1</t>
+    <rPh sb="0" eb="1">
+      <t>min zu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>籍贯1</t>
+    <rPh sb="0" eb="1">
+      <t>ji guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生地1</t>
+    <rPh sb="0" eb="1">
+      <t>chu sheng di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国籍1</t>
+    <rPh sb="0" eb="1">
+      <t>guo ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业1</t>
+    <rPh sb="0" eb="1">
+      <t>zhi ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育程度1</t>
+    <rPh sb="0" eb="1">
+      <t>jiao yu cheng du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚姻状况1</t>
+    <rPh sb="0" eb="1">
+      <t>hun yin zhuang kuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐献途径1</t>
+    <rPh sb="0" eb="1">
+      <t>juan xian tu jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病类目名称1</t>
+    <rPh sb="0" eb="1">
+      <t>ji bing lei mu ming cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病类目代码1</t>
+    <rPh sb="0" eb="1">
+      <t>ji bing lei mu dai ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要诊断1</t>
+    <rPh sb="0" eb="1">
+      <t>zhu yao zhen duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现病史1</t>
+    <rPh sb="0" eb="1">
+      <t>xian bing shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验记录1</t>
+    <rPh sb="0" eb="1">
+      <t>jian yan ji lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随访记录1</t>
+    <rPh sb="0" eb="1">
+      <t>sui fang ji lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影像资料1</t>
+    <rPh sb="0" eb="1">
+      <t>ying xiang zi liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病例报告1</t>
+    <rPh sb="0" eb="1">
+      <t>bing li bao gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家系信息1</t>
+    <rPh sb="0" eb="1">
+      <t>jia xi xin xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题名称1</t>
+    <rPh sb="0" eb="1">
+      <t>ke ti ming cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题编号1</t>
+    <rPh sb="0" eb="1">
+      <t>ke ti bian hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题级别1</t>
+    <rPh sb="0" eb="1">
+      <t>ke ti ji bie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资助机构1</t>
+    <rPh sb="0" eb="1">
+      <t>zi zhu ji gou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳入标准1</t>
+    <rPh sb="0" eb="1">
+      <t>na ru biao zhun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题关键词1</t>
+    <rPh sb="0" eb="1">
+      <t>ke ti guan jian ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集目的1</t>
+    <rPh sb="0" eb="1">
+      <t>shou ji mu di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集方法1</t>
+    <rPh sb="0" eb="1">
+      <t>shou ji fang fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起止时间1</t>
+    <rPh sb="0" eb="1">
+      <t>qi zhi shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本编码2</t>
+    <rPh sb="0" eb="1">
+      <t>yang ben</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母本编码2</t>
+    <rPh sb="0" eb="1">
+      <t>mu ben bian ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量单位2</t>
+    <rPh sb="0" eb="1">
+      <t>liang dan wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本别称2</t>
+    <rPh sb="0" eb="1">
+      <t>yang ben bie cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本描述2</t>
+    <rPh sb="0" eb="1">
+      <t>yang ben miao shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词2</t>
+    <rPh sb="0" eb="1">
+      <t>guan jian ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本用途2</t>
+    <rPh sb="0" eb="1">
+      <t>yang ben yong tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集部位2</t>
+    <rPh sb="0" eb="1">
+      <t>cai ji bu wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析前变量2</t>
+    <rPh sb="0" eb="1">
+      <t>fen xi qian bian liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集动因2</t>
+    <rPh sb="0" eb="1">
+      <t>cai ji dong yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集计划2</t>
+    <rPh sb="0" eb="1">
+      <t>cai ji ji hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集机构2</t>
+    <rPh sb="0" eb="1">
+      <t>cai ji ji gou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他采集者2</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta cai ji zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存机构名称2</t>
+    <rPh sb="0" eb="1">
+      <t>bao cun ji gou ming cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人机构名称2</t>
+    <rPh sb="0" eb="1">
+      <t>fa ren ji gou ming cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人机构代码2</t>
+    <rPh sb="0" eb="1">
+      <t>fa ren ji gou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dai ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人机构类型2</t>
+    <rPh sb="0" eb="1">
+      <t>fa ren ji gou lei xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存机构简介2</t>
+    <rPh sb="0" eb="1">
+      <t>bao cun ji gou jian jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用许可2</t>
+    <rPh sb="0" eb="1">
+      <t>shi yong xu ke</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享方式2</t>
+    <rPh sb="0" eb="1">
+      <t>gong xiang fang shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信地址2</t>
+    <rPh sb="0" eb="1">
+      <t>tong xin di zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政编码2</t>
+    <rPh sb="0" eb="1">
+      <t>you zheng bi na ma</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员2</t>
+    <rPh sb="0" eb="1">
+      <t>guan li yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子信箱2</t>
+    <rPh sb="0" eb="1">
+      <t>dian zi xin xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐献者匿名编号2</t>
+    <rPh sb="0" eb="1">
+      <t>juan xian zhe ni ming bian hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族2</t>
+    <rPh sb="0" eb="1">
+      <t>min zu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>籍贯2</t>
+    <rPh sb="0" eb="1">
+      <t>ji guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生地2</t>
+    <rPh sb="0" eb="1">
+      <t>chu sheng di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国籍2</t>
+    <rPh sb="0" eb="1">
+      <t>guo ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业2</t>
+    <rPh sb="0" eb="1">
+      <t>zhi ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育程度2</t>
+    <rPh sb="0" eb="1">
+      <t>jiao yu cheng du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚姻状况2</t>
+    <rPh sb="0" eb="1">
+      <t>hun yin zhuang kuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐献途径2</t>
+    <rPh sb="0" eb="1">
+      <t>juan xian tu jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病类目名称2</t>
+    <rPh sb="0" eb="1">
+      <t>ji bing lei mu ming cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病类目代码2</t>
+    <rPh sb="0" eb="1">
+      <t>ji bing lei mu dai ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要诊断2</t>
+    <rPh sb="0" eb="1">
+      <t>zhu yao zhen duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现病史2</t>
+    <rPh sb="0" eb="1">
+      <t>xian bing shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验记录2</t>
+    <rPh sb="0" eb="1">
+      <t>jian yan ji lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随访记录2</t>
+    <rPh sb="0" eb="1">
+      <t>sui fang ji lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影像资料2</t>
+    <rPh sb="0" eb="1">
+      <t>ying xiang zi liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病例报告2</t>
+    <rPh sb="0" eb="1">
+      <t>bing li bao gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家系信息2</t>
+    <rPh sb="0" eb="1">
+      <t>jia xi xin xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题名称2</t>
+    <rPh sb="0" eb="1">
+      <t>ke ti ming cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题编号2</t>
+    <rPh sb="0" eb="1">
+      <t>ke ti bian hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题级别2</t>
+    <rPh sb="0" eb="1">
+      <t>ke ti ji bie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资助机构2</t>
+    <rPh sb="0" eb="1">
+      <t>zi zhu ji gou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳入标准2</t>
+    <rPh sb="0" eb="1">
+      <t>na ru biao zhun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题关键词2</t>
+    <rPh sb="0" eb="1">
+      <t>ke ti guan jian ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集目的2</t>
+    <rPh sb="0" eb="1">
+      <t>shou ji mu di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集方法2</t>
+    <rPh sb="0" eb="1">
+      <t>shou ji fang fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起止时间2</t>
+    <rPh sb="0" eb="1">
+      <t>qi zhi shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1460,23 +1565,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ5"/>
+  <dimension ref="A1:BJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="33" max="33" width="13.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1497,7 +1605,7 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
@@ -1512,7 +1620,7 @@
         <v>10</v>
       </c>
       <c r="O1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P1" t="s">
         <v>11</v>
@@ -1542,7 +1650,7 @@
         <v>19</v>
       </c>
       <c r="Y1" t="s">
-        <v>275</v>
+        <v>65</v>
       </c>
       <c r="Z1" t="s">
         <v>20</v>
@@ -1566,7 +1674,7 @@
         <v>26</v>
       </c>
       <c r="AG1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AH1" t="s">
         <v>27</v>
@@ -1593,84 +1701,84 @@
         <v>34</v>
       </c>
       <c r="AP1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>35</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>37</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>38</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV1" t="s">
         <v>39</v>
       </c>
-      <c r="AU1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>40</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>41</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>42</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>43</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>44</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>45</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>46</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>47</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>48</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>49</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>50</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>51</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>52</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>53</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1">
         <v>230</v>
@@ -1679,222 +1787,222 @@
         <v>76</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE2" s="1">
         <v>97</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI2" s="1">
         <v>25</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BI2" s="1">
         <v>42</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F3" s="1">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="G3" s="1">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I3" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>128</v>
@@ -1936,7 +2044,7 @@
         <v>140</v>
       </c>
       <c r="AE3" s="1">
-        <v>244</v>
+        <v>97</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>141</v>
@@ -1945,10 +2053,10 @@
         <v>142</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI3" s="1">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="AJ3" s="1" t="s">
         <v>143</v>
@@ -2026,386 +2134,10 @@
         <v>167</v>
       </c>
       <c r="BI3" s="1">
-        <v>198</v>
+        <v>42</v>
       </c>
       <c r="BJ3" s="1" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="1">
-        <v>247</v>
-      </c>
-      <c r="G4" s="1">
-        <v>95</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>249</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>89</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BI4" s="1">
-        <v>235</v>
-      </c>
-      <c r="BJ4" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F5" s="1">
-        <v>125</v>
-      </c>
-      <c r="G5" s="1">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>136</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>63</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="BI5" s="1">
-        <v>71</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
   </sheetData>
